--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2443.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2443.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.03518741312576</v>
+        <v>2.059661865234375</v>
       </c>
       <c r="B1">
-        <v>2.167914752532485</v>
+        <v>2.259135007858276</v>
       </c>
       <c r="C1">
-        <v>8.190766993795696</v>
+        <v>2.354539632797241</v>
       </c>
       <c r="D1">
-        <v>2.640908448150622</v>
+        <v>3.045063018798828</v>
       </c>
       <c r="E1">
-        <v>0.9842610381034413</v>
+        <v>2.967832565307617</v>
       </c>
     </row>
   </sheetData>
